--- a/input_720/cacET/event-triggered.xlsx
+++ b/input_720/cacET/event-triggered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\作业\研究生\氢组\榆林能源站\设备能效计算\mx\optimization-MPC\input_720\cacET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8719C-10D3-4D70-B501-55C5E271C313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0754147-A067-4140-8AAF-CF2F12B3EE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="220" windowWidth="22250" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="410" windowWidth="14660" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,11 +107,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,9 +135,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -432,13 +426,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="9" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -489,13 +491,13 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1883.735050068087</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>271.62395333333302</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2">
@@ -519,7 +521,7 @@
       <c r="L2">
         <v>0.95</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -530,13 +532,13 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1884.087629512509</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>270.759453333333</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3">
@@ -549,18 +551,18 @@
         <v>0.82</v>
       </c>
       <c r="I3" s="1">
-        <v>48.762426910708882</v>
+        <v>48.523000000000003</v>
       </c>
       <c r="J3" s="1">
-        <v>47.000000000574808</v>
+        <v>47</v>
       </c>
       <c r="K3" s="1">
-        <v>49.90521040190734</v>
+        <v>200</v>
       </c>
       <c r="L3">
         <v>0.95</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -571,13 +573,13 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1943.4996951554781</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>272.48661333333303</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4">
@@ -590,18 +592,18 @@
         <v>0.82</v>
       </c>
       <c r="I4" s="1">
-        <v>49.863487687604675</v>
+        <v>49.360999999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>47.000000000491603</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1">
-        <v>74.178727070897224</v>
+        <v>200</v>
       </c>
       <c r="L4">
         <v>0.95</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -612,13 +614,13 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1853.149283319816</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>274.09248000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5">
@@ -631,18 +633,18 @@
         <v>0.82</v>
       </c>
       <c r="I5" s="1">
-        <v>50.963604698076551</v>
+        <v>50.052</v>
       </c>
       <c r="J5" s="1">
-        <v>47.000000000541043</v>
+        <v>47</v>
       </c>
       <c r="K5" s="1">
-        <v>94.204948915261809</v>
+        <v>200</v>
       </c>
       <c r="L5">
         <v>0.95</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -653,13 +655,13 @@
       <c r="B6">
         <v>0.4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1853.149283319816</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>274.09248000000002</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6">
@@ -672,18 +674,18 @@
         <v>0.82</v>
       </c>
       <c r="I6" s="1">
-        <v>50.963604698076551</v>
+        <v>50.999000000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>47.000000000541043</v>
+        <v>47</v>
       </c>
       <c r="K6" s="1">
-        <v>94.204948915261809</v>
-      </c>
-      <c r="L6" s="3">
+        <v>200</v>
+      </c>
+      <c r="L6" s="2">
         <v>1E-3</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -694,13 +696,13 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1896.469409502924</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>275.59927333333297</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7">
@@ -713,18 +715,18 @@
         <v>0.82</v>
       </c>
       <c r="I7" s="1">
-        <v>52.061921608258217</v>
+        <v>51.378</v>
       </c>
       <c r="J7" s="1">
-        <v>47.000000000589296</v>
+        <v>47</v>
       </c>
       <c r="K7" s="1">
-        <v>111.69525178831438</v>
-      </c>
-      <c r="L7" s="3">
+        <v>200</v>
+      </c>
+      <c r="L7" s="2">
         <v>1E-3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -735,13 +737,13 @@
       <c r="B8">
         <v>0.7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1896.469409502924</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>275.59927333333297</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8">
@@ -754,18 +756,18 @@
         <v>0.82</v>
       </c>
       <c r="I8" s="1">
-        <v>52.061921608258217</v>
+        <v>51.822000000000003</v>
       </c>
       <c r="J8" s="1">
-        <v>47.000000000589296</v>
+        <v>47</v>
       </c>
       <c r="K8" s="1">
-        <v>111.69525178831438</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="M8" s="2">
+        <v>200</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="M8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -776,13 +778,13 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1814.5597585816051</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>276.03294666666602</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9">
@@ -795,18 +797,18 @@
         <v>0.82</v>
       </c>
       <c r="I9" s="1">
-        <v>53.159297103885592</v>
+        <v>52.396999999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>47.00000000075584</v>
+        <v>47</v>
       </c>
       <c r="K9" s="1">
-        <v>131.28564758059613</v>
+        <v>200</v>
       </c>
       <c r="L9">
         <v>0.95</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -817,13 +819,13 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1948.0825766843334</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>272.558846666666</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10">
@@ -836,18 +838,18 @@
         <v>0.82</v>
       </c>
       <c r="I10" s="1">
-        <v>54.255731992014489</v>
+        <v>52.878</v>
       </c>
       <c r="J10" s="1">
-        <v>47.000000000764977</v>
+        <v>47</v>
       </c>
       <c r="K10" s="1">
-        <v>154.78006692832898</v>
+        <v>200</v>
       </c>
       <c r="L10">
         <v>0.95</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -858,13 +860,13 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1835.608530337709</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>279.20892443824403</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>31.301311099999999</v>
       </c>
       <c r="F11">
@@ -877,18 +879,18 @@
         <v>0.82</v>
       </c>
       <c r="I11" s="1">
-        <v>54.999999999679403</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1">
-        <v>47.700739873310219</v>
+        <v>49.393000000000001</v>
       </c>
       <c r="K11" s="1">
-        <v>199.99999997335175</v>
+        <v>200</v>
       </c>
       <c r="L11">
         <v>0.95</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -899,13 +901,13 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1913.2829101704556</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>250.73885687335701</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>227.7595263</v>
       </c>
       <c r="F12">
@@ -918,18 +920,18 @@
         <v>0.82</v>
       </c>
       <c r="I12" s="1">
-        <v>54.999999999128931</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1">
-        <v>47.000000000938925</v>
+        <v>47</v>
       </c>
       <c r="K12" s="1">
-        <v>199.99999973607643</v>
+        <v>200</v>
       </c>
       <c r="L12">
         <v>0.95</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>2</v>
       </c>
     </row>
@@ -940,13 +942,13 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>1868.7263065540315</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>229.45767096060499</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>400.3687936</v>
       </c>
       <c r="F13">
@@ -959,18 +961,18 @@
         <v>0.82</v>
       </c>
       <c r="I13" s="1">
-        <v>52.647485975413701</v>
+        <v>52.357999999999997</v>
       </c>
       <c r="J13" s="1">
-        <v>47.000000000326956</v>
+        <v>47</v>
       </c>
       <c r="K13" s="1">
-        <v>1.1531569720149822E-5</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0.95</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>3</v>
       </c>
     </row>
@@ -981,13 +983,13 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1909.1130653747989</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>230.92609309090901</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>374.64794799999999</v>
       </c>
       <c r="F14">
@@ -1000,18 +1002,18 @@
         <v>0.82</v>
       </c>
       <c r="I14" s="1">
-        <v>50.259941583954287</v>
+        <v>49.79</v>
       </c>
       <c r="J14" s="1">
-        <v>47.000000000287201</v>
+        <v>47</v>
       </c>
       <c r="K14" s="1">
-        <v>3.1371593214627887E-6</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0.95</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1022,13 +1024,13 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1295.8517602486402</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>225.63982203030301</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>442.78825929999999</v>
       </c>
       <c r="F15">
@@ -1041,18 +1043,18 @@
         <v>0.82</v>
       </c>
       <c r="I15" s="1">
-        <v>48.57317655695465</v>
+        <v>48.338999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>47.00000000019125</v>
+        <v>47</v>
       </c>
       <c r="K15" s="1">
-        <v>2.8218808717889246E-6</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0.95</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1063,13 +1065,13 @@
       <c r="B16">
         <v>0.3</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1295.8517602486402</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>225.63982203030301</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>1E-3</v>
       </c>
       <c r="F16">
@@ -1082,18 +1084,18 @@
         <v>0.82</v>
       </c>
       <c r="I16" s="1">
-        <v>48.57317655695465</v>
+        <v>47.616999999999997</v>
       </c>
       <c r="J16" s="1">
-        <v>47.00000000019125</v>
+        <v>47</v>
       </c>
       <c r="K16" s="1">
-        <v>2.8218808717889246E-6</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0.95</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1104,13 +1106,13 @@
       <c r="B17">
         <v>0.7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1295.8517602486402</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>225.63982203030301</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>442.78825929999999</v>
       </c>
       <c r="F17">
@@ -1123,18 +1125,18 @@
         <v>0.82</v>
       </c>
       <c r="I17" s="1">
-        <v>48.57317655695465</v>
+        <v>48.668999999999997</v>
       </c>
       <c r="J17" s="1">
-        <v>47.00000000019125</v>
+        <v>47</v>
       </c>
       <c r="K17" s="1">
-        <v>2.8218808717889246E-6</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0.95</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1145,13 +1147,13 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1210.5655844296734</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>232.60534284848401</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>473.69608419999997</v>
       </c>
       <c r="F18">
@@ -1164,18 +1166,18 @@
         <v>0.82</v>
       </c>
       <c r="I18" s="1">
-        <v>47.733811270379192</v>
+        <v>47.618000000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>47.000000000200252</v>
+        <v>47</v>
       </c>
       <c r="K18" s="1">
-        <v>2.5579494990364866E-6</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0.95</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1186,13 +1188,13 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1295.8309146373658</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>245.70011967708299</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>448.74385369999999</v>
       </c>
       <c r="F19">
@@ -1205,18 +1207,18 @@
         <v>0.82</v>
       </c>
       <c r="I19" s="1">
-        <v>47.31570523725054</v>
+        <v>47.51</v>
       </c>
       <c r="J19" s="1">
-        <v>47.000000000424144</v>
+        <v>47</v>
       </c>
       <c r="K19" s="1">
-        <v>52.833098303928715</v>
+        <v>200</v>
       </c>
       <c r="L19">
         <v>0.95</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1227,13 +1229,13 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>1221.1825947307073</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>215.771036829861</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>458.02854289999999</v>
       </c>
       <c r="F20">
@@ -1246,18 +1248,18 @@
         <v>0.82</v>
       </c>
       <c r="I20" s="1">
-        <v>47.107867740791789</v>
+        <v>47.204999999999998</v>
       </c>
       <c r="J20" s="1">
-        <v>47.00000000043962</v>
+        <v>47</v>
       </c>
       <c r="K20" s="1">
-        <v>81.409257294934648</v>
+        <v>200</v>
       </c>
       <c r="L20">
         <v>0.95</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1268,13 +1270,13 @@
       <c r="B21">
         <v>0.5</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>1621.18259473071</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>315.77103682986098</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>458.02854289999999</v>
       </c>
       <c r="F21">
@@ -1287,18 +1289,18 @@
         <v>0.82</v>
       </c>
       <c r="I21" s="1">
-        <v>47.107867740791789</v>
+        <v>47.054000000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>47.00000000043962</v>
+        <v>47</v>
       </c>
       <c r="K21" s="1">
-        <v>81.409257294934648</v>
+        <v>200</v>
       </c>
       <c r="L21">
         <v>0.95</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1309,13 +1311,13 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>1633.0459344359899</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>341.46012691176401</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>363.48372929999999</v>
       </c>
       <c r="F22">
@@ -1328,18 +1330,18 @@
         <v>0.82</v>
       </c>
       <c r="I22" s="1">
-        <v>47.005841424788741</v>
+        <v>47.017000000000003</v>
       </c>
       <c r="J22" s="1">
-        <v>47.000000000455941</v>
+        <v>47</v>
       </c>
       <c r="K22" s="1">
-        <v>101.72683457908013</v>
+        <v>200</v>
       </c>
       <c r="L22">
         <v>0.95</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1350,13 +1352,13 @@
       <c r="B23">
         <v>0.2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>1633.0459344359899</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>341.46012691176401</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>363.48372929999999</v>
       </c>
       <c r="F23">
@@ -1365,22 +1367,22 @@
       <c r="G23">
         <v>16.022500000000001</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>0.6</v>
       </c>
       <c r="I23" s="1">
-        <v>47.005841424788741</v>
+        <v>46.988999999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>47.000000000455941</v>
+        <v>47</v>
       </c>
       <c r="K23" s="1">
-        <v>101.72683457908013</v>
+        <v>200</v>
       </c>
       <c r="L23">
         <v>0.95</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1391,13 +1393,13 @@
       <c r="B24">
         <v>0.7</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>1633.0459344359899</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>341.46012691176401</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>363.48372929999999</v>
       </c>
       <c r="F24">
@@ -1406,22 +1408,22 @@
       <c r="G24">
         <v>16.022500000000001</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>0.82</v>
       </c>
       <c r="I24" s="1">
-        <v>47.005841424788741</v>
+        <v>46.981000000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>47.000000000455941</v>
+        <v>47</v>
       </c>
       <c r="K24" s="1">
-        <v>101.72683457908013</v>
+        <v>200</v>
       </c>
       <c r="L24">
         <v>0.95</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1432,13 +1434,13 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>1684.7625833964701</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>335.39070207837898</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>123.8984325</v>
       </c>
       <c r="F25">
@@ -1451,18 +1453,18 @@
         <v>0.82</v>
       </c>
       <c r="I25" s="1">
-        <v>46.955772868177746</v>
+        <v>46.962000000000003</v>
       </c>
       <c r="J25" s="1">
-        <v>47.000000000472838</v>
+        <v>47</v>
       </c>
       <c r="K25" s="1">
-        <v>121.90223631528129</v>
+        <v>200</v>
       </c>
       <c r="L25">
         <v>0.95</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1473,13 +1475,13 @@
       <c r="B26">
         <v>0.5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>1284.7625833964735</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>235.39070207837901</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>123.8984325</v>
       </c>
       <c r="F26">
@@ -1492,18 +1494,18 @@
         <v>0.82</v>
       </c>
       <c r="I26" s="1">
-        <v>46.955772868177746</v>
+        <v>50.957000000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>47.000000000472838</v>
+        <v>47</v>
       </c>
       <c r="K26" s="1">
-        <v>121.90223631528129</v>
+        <v>200</v>
       </c>
       <c r="L26">
         <v>0.95</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1514,13 +1516,13 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>1299.5947957564995</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>229.89768395208301</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>6.1427083720000004</v>
       </c>
       <c r="F27">
@@ -1533,18 +1535,18 @@
         <v>0.82</v>
       </c>
       <c r="I27" s="1">
-        <v>48.817904117935541</v>
+        <v>52.066000000000003</v>
       </c>
       <c r="J27" s="1">
-        <v>47.000000000473982</v>
+        <v>47</v>
       </c>
       <c r="K27" s="1">
-        <v>150.02723685191791</v>
+        <v>200</v>
       </c>
       <c r="L27">
         <v>0.95</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>11</v>
       </c>
     </row>
@@ -1555,13 +1557,13 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>1970.7657363710136</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>235.99630499999901</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28">
@@ -1574,18 +1576,18 @@
         <v>0.82</v>
       </c>
       <c r="I28" s="1">
-        <v>54.152090791280671</v>
+        <v>55</v>
       </c>
       <c r="J28" s="1">
-        <v>47.000000000146152</v>
+        <v>47</v>
       </c>
       <c r="K28" s="1">
-        <v>199.99999972220863</v>
+        <v>200</v>
       </c>
       <c r="L28">
         <v>0.95</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1596,13 +1598,13 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>1839.5329878777429</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>241.056381666666</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29">
@@ -1615,18 +1617,18 @@
         <v>0.82</v>
       </c>
       <c r="I29" s="1">
-        <v>50.518486460947315</v>
+        <v>51.386000000000003</v>
       </c>
       <c r="J29" s="1">
-        <v>47.000000000216872</v>
+        <v>47</v>
       </c>
       <c r="K29" s="1">
-        <v>199.99999991374011</v>
+        <v>200</v>
       </c>
       <c r="L29">
         <v>0.95</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1637,13 +1639,13 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>1931.8262792216301</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>243.21845499999901</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30">
@@ -1656,18 +1658,18 @@
         <v>0.82</v>
       </c>
       <c r="I30" s="1">
-        <v>49.077796580029144</v>
+        <v>49.136000000000003</v>
       </c>
       <c r="J30" s="1">
-        <v>47.00000000065603</v>
+        <v>47</v>
       </c>
       <c r="K30" s="1">
-        <v>37.673608126063769</v>
+        <v>112.22499999999999</v>
       </c>
       <c r="L30">
         <v>0.95</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>13</v>
       </c>
     </row>
@@ -1678,37 +1680,37 @@
       <c r="B31">
         <v>0.3</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>1931.8262792216301</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>240.21976833333301</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
         <v>1E-3</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>1E-3</v>
       </c>
       <c r="H31">
         <v>0.82</v>
       </c>
       <c r="I31" s="1">
-        <v>48.210991290850188</v>
+        <v>48.012</v>
       </c>
       <c r="J31" s="1">
-        <v>47.000000000259675</v>
+        <v>47</v>
       </c>
       <c r="K31" s="1">
-        <v>37.673604767236881</v>
+        <v>115.458</v>
       </c>
       <c r="L31">
         <v>0.95</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>14</v>
       </c>
     </row>
@@ -1719,37 +1721,37 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>1809.256728366583</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>240.21976833333301</v>
       </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>12.0275</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>12.0275</v>
+      </c>
+      <c r="G32" s="2">
         <v>16.022500000000001</v>
       </c>
       <c r="H32">
         <v>0.82</v>
       </c>
       <c r="I32" s="1">
-        <v>48.210991290850188</v>
+        <v>47.844000000000001</v>
       </c>
       <c r="J32" s="1">
-        <v>47.000000000259675</v>
+        <v>47</v>
       </c>
       <c r="K32" s="1">
-        <v>37.673604767236881</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0.95</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>14</v>
       </c>
     </row>
@@ -1760,13 +1762,13 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>1919.6562924033465</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>245.37874333333301</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33">
@@ -1779,18 +1781,18 @@
         <v>0.82</v>
       </c>
       <c r="I33" s="1">
-        <v>47.548743367406132</v>
+        <v>47.509</v>
       </c>
       <c r="J33" s="1">
-        <v>47.00000000004227</v>
+        <v>47</v>
       </c>
       <c r="K33" s="1">
-        <v>94.464824596544148</v>
+        <v>64.754000000000005</v>
       </c>
       <c r="L33">
         <v>0.95</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>15</v>
       </c>
     </row>
@@ -1801,13 +1803,13 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>1913.9387956557091</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>287.478714999999</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0</v>
       </c>
       <c r="F34">
@@ -1820,18 +1822,18 @@
         <v>0.82</v>
       </c>
       <c r="I34" s="1">
-        <v>47.21732990370424</v>
+        <v>47.197000000000003</v>
       </c>
       <c r="J34" s="1">
-        <v>47.000000000028862</v>
+        <v>47</v>
       </c>
       <c r="K34" s="1">
-        <v>1.4000079104174135E-8</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0.95</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>16</v>
       </c>
     </row>
